--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Verrati', 'Soler']</t>
+    <t>['Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Bamba']</t>
+  </si>
+  <si>
+    <t>["N'Diaye"]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Yoro']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Palaversa', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'ChaÃ¯bi', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Zeneli', 'Munetsi', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Versini', 'Borges']</t>
+    <t>['Kipembe', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Ugbo', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'Dejaegere', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Medina']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Lille</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Le_Fee', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Perrin']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Mendy', 'Sima']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", 'Roure']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Coco', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Sylla', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Gusto']</t>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>['Cisse']</t>
+  </si>
+  <si>
+    <t>['Aouar']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Bellegarde', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Assignon', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Brassier']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Dembele']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Bamba']</t>
-  </si>
-  <si>
-    <t>["N'Diaye"]</t>
+    <t>['Duverne', 'Brassier', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Dugimont']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Kipembe', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Ugbo', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen', 'Dejaegere', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Medina']</t>
+    <t>['Rodon', 'Kalimuendo', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Diallo', 'Lebas', 'Silla', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Camara', 'Alioui', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Lienard', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Wieteska', 'Gastien']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>OM</t>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>PSG</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Sakho']</t>
-  </si>
-  <si>
-    <t>['Cisse']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Bellegarde', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Assignon', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Brassier']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Dembele']</t>
+    <t>['Aouar', 'Tagliafico', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Soler', 'Mbappe', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Pelon']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Brahimi', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Ugbo']</t>
   </si>
 </sst>
 </file>
@@ -552,28 +546,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -587,22 +581,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,28 +604,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,28 +633,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,25 +662,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -697,28 +691,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,25 +720,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -755,25 +749,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -784,28 +778,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,28 +807,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -40,118 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Duverne', 'Brassier', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Dugimont']</t>
+    <t>['Ponceau', 'Kroupi', 'Laporte', 'Innocent']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Mothiba', 'Perrin', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Aguilar', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Rodon', 'Kalimuendo', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Diallo', 'Lebas', 'Silla', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Camara', 'Alioui', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Lienard', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Wieteska', 'Gastien']</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Tagliafico', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Soler', 'Mbappe', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Spierings']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Pelon']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Brahimi', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Ugbo']</t>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Danois']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Sima']</t>
+  </si>
+  <si>
+    <t>['Gastien']</t>
+  </si>
+  <si>
+    <t>['Kipembe']</t>
   </si>
 </sst>
 </file>
@@ -543,86 +543,86 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -630,28 +630,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -662,25 +662,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -688,28 +688,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -717,54 +717,54 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -775,60 +775,60 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ponceau', 'Kroupi', 'Laporte', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Mothiba', 'Perrin', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Aguilar', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Moffi', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Balogin']</t>
+  </si>
+  <si>
+    <t>['Ratao']</t>
+  </si>
+  <si>
+    <t>['Perrin']</t>
+  </si>
+  <si>
+    <t>['Traore']</t>
+  </si>
+  <si>
+    <t>['Pereira']</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Coco']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Danois']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Sima']</t>
-  </si>
-  <si>
-    <t>['Gastien']</t>
-  </si>
-  <si>
-    <t>['Kipembe']</t>
+    <t>['Roure', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Cabella', 'Yoro', 'Cabella', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Rongier', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Coco', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Le_Fee', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Magnetti', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Jeanvier', 'Autret']</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -555,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -572,10 +578,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -584,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -596,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -613,27 +619,27 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,24 +651,24 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,24 +680,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -700,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -709,18 +715,18 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -729,27 +735,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -758,27 +764,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,21 +796,21 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -816,19 +822,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ponceau', 'Kroupi', 'Laporte', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Mothiba', 'Perrin', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Aguilar', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
+    <t>['Moalida', 'Cajuste', 'Abdelhamid', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Aouar', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Khazri']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Mbappe']</t>
+  </si>
+  <si>
+    <t>['Spierings']</t>
+  </si>
+  <si>
+    <t>['Simon']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Coco']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Danois']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Sima']</t>
-  </si>
-  <si>
-    <t>['Gastien']</t>
-  </si>
-  <si>
-    <t>['Kipembe']</t>
+    <t>['Gudmundsson', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Dembele']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Varane', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Beka', 'Beka', 'Beka', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Maurer', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Hamouma', 'Diallo', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Camara', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Traore', 'Terrier', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Le_Marchand']</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -567,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -584,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -596,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,24 +622,24 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,24 +651,24 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,24 +680,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,24 +709,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -729,27 +735,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -758,27 +764,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,21 +796,21 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -819,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Moffi', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Ramos', 'Messi']</t>
+    <t>['Henrique', 'Pele', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Cabella', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Borges']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Lega']</t>
+  </si>
+  <si>
+    <t>['Gigot']</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Chardonnet', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Verrati']</t>
   </si>
   <si>
     <t>['Balogin']</t>
   </si>
   <si>
-    <t>['Ratao']</t>
-  </si>
-  <si>
-    <t>['Perrin']</t>
-  </si>
-  <si>
-    <t>['Traore']</t>
-  </si>
-  <si>
-    <t>['Pereira']</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Roure', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Cabella', 'Yoro', 'Cabella', 'Andre']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Rongier', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Coco', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Le_Fee', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Magnetti', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Jeanvier', 'Autret']</t>
+    <t>['Desler']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Santamaria', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Fortes', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Pelon']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", 'Hamouma', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,12 +689,12 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -40,64 +40,85 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ribeiro', 'Ribeiro', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Dallinga', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Serhuis']</t>
-  </si>
-  <si>
-    <t>['Pallois']</t>
-  </si>
-  <si>
-    <t>['Alphonse']</t>
+    <t>['Tolisso', 'Caqueret', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Sanches', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Healey']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Blas', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Burlet', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Aguilar']</t>
+  </si>
+  <si>
+    <t>['Borges']</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Lorient</t>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>OM</t>
@@ -106,58 +127,37 @@
     <t>Troyes</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>['Gigot', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Ripart']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Ben_Yedder', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Sima', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Pereira', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Borges', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Merdji']</t>
+    <t>['Wooh']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Michelin']</t>
+  </si>
+  <si>
+    <t>['Guillaume', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Laborde']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Gameiro', 'H.Diallo', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Khazri', 'Khazri', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Harit', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Da_Costa']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,12 +718,12 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Tolisso', 'Caqueret', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Sanches', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Flips']</t>
-  </si>
-  <si>
-    <t>['Healey']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Blas', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Burlet', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Aguilar']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Ponceau', 'Ponceau', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Sanches', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Spierings', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Bain']</t>
   </si>
   <si>
     <t>['Borges']</t>
   </si>
   <si>
+    <t>['Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Lemarechal']</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Wooh']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Michelin']</t>
-  </si>
-  <si>
-    <t>['Guillaume', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Laborde']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Gameiro', 'H.Diallo', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Khazri', 'Khazri', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Harit', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Porozo', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Da_Costa']</t>
+    <t>['Brahimi', 'Brahimi', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Salmier']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Le_Marchand', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Caqueret']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B7">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour16.xlsx
+++ b/jour16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Laporte', 'Ponceau', 'Ponceau', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Sanches', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Spierings', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Lopy']</t>
+    <t>['Mendes', 'Mendes', 'Ramos', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Pereira', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Caqueret', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Balogin', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Camara', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Le_Fee']</t>
   </si>
   <si>
     <t>['Bain']</t>
   </si>
   <si>
-    <t>['Borges']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Lemarechal']</t>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>PSG</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Angers</t>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Brahimi', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Salmier']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Le_Marchand', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Caqueret']</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Terrier', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Cabella']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Harit', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Balde', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'H.Diallo', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Simon']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Del_Castillo', 'Magnetti']</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -579,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -591,18 +588,18 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -614,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -623,18 +620,18 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -649,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -661,18 +658,18 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -681,10 +678,10 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -693,10 +690,10 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -716,10 +713,10 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -731,18 +728,18 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -754,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -763,21 +760,21 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -786,10 +783,10 @@
         <v>26</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -798,21 +795,21 @@
         <v>46</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -821,10 +818,10 @@
         <v>27</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -833,18 +830,18 @@
         <v>47</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -856,10 +853,10 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -871,18 +868,18 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -894,19 +891,19 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
